--- a/public/formats/Formato_Proyectos.xlsx
+++ b/public/formats/Formato_Proyectos.xlsx
@@ -16,6 +16,73 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Angie M. Delgado</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Digite el código del subprograma utilizando la siguiente convención 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>cd.ce.cp.cs</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">   donde
+cd = Codigo Dimension
+ce = Codigo Eje
+cp = Codigo Programa
+cs = Codigo subprograma
+Ej:</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 2.11.13.23</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -37,7 +104,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -52,6 +119,32 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="81"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -74,7 +167,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -89,6 +182,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -421,11 +517,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="D14" sqref="D13:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -450,8 +546,12 @@
         <v>2</v>
       </c>
     </row>
+    <row r="8" spans="1:4">
+      <c r="B8" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/public/formats/Formato_Proyectos.xlsx
+++ b/public/formats/Formato_Proyectos.xlsx
@@ -104,7 +104,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -116,13 +116,6 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -167,14 +160,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -184,8 +171,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -518,25 +505,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D13:D14"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="13.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="64.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="64.83203125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1">
+    <row r="1" spans="1:4" s="1" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -545,9 +532,6 @@
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="B8" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
